--- a/biology/Botanique/Croton_insularis/Croton_insularis.xlsx
+++ b/biology/Botanique/Croton_insularis/Croton_insularis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Croton insularis est une espèce de plantes à fleurs du genre Croton et de la famille des Euphorbiaceae présente de l'est du Queensland au nord-est de la Nouvelle-Galles du Sud, en Australie, au Vanuatu et en Nouvelle-Calédonie (y compris les îles Loyauté).
 </t>
@@ -511,17 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un arbre pouvant grandir jusqu'à 8 mètres.
-Aspect
-L'écorce est grise et lisse ou finement crevassée. Le tronc peut atteindre 20 centimètres de diamètre.
-Feuilles
-Alternes, simples et entières, de 2 à 18 centimètres de long. Elles sont argentées sur la face inférieure et deviennent orangées avant de tomber.
-Fleurs
-Les inflorescences sont mixtes. Les fleurs mâles et femelles sont minuscules : 1,5 à 2 mm de long.
-Fruits
-Globuleux et de couleur argentée, le fruit s'ouvre en trois parties une fois à maturité. Il mesure 5 à 6 mm. Les graines (3 au maximum) mesurent 4 mm de long.
 </t>
         </is>
       </c>
@@ -547,12 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">On trouve cette espèce en forêt sèche, à basse et moyenne altitude (de 5 à 600 mètres).
+          <t>Aspect</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'écorce est grise et lisse ou finement crevassée. Le tronc peut atteindre 20 centimètres de diamètre.
 </t>
         </is>
       </c>
@@ -578,12 +590,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Utilisation</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet arbre est utile pour le reboisement car il se comporte en pionnier. Il ne craint pas les dégâts causés par les cerfs.
+          <t>Feuilles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alternes, simples et entières, de 2 à 18 centimètres de long. Elles sont argentées sur la face inférieure et deviennent orangées avant de tomber.
 </t>
         </is>
       </c>
@@ -609,10 +627,152 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Fleurs</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont mixtes. Les fleurs mâles et femelles sont minuscules : 1,5 à 2 mm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Croton_insularis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_insularis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Fruits</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Globuleux et de couleur argentée, le fruit s'ouvre en trois parties une fois à maturité. Il mesure 5 à 6 mm. Les graines (3 au maximum) mesurent 4 mm de long.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Croton_insularis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_insularis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On trouve cette espèce en forêt sèche, à basse et moyenne altitude (de 5 à 600 mètres).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Croton_insularis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_insularis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet arbre est utile pour le reboisement car il se comporte en pionnier. Il ne craint pas les dégâts causés par les cerfs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Croton_insularis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Croton_insularis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Croton collinus, Pancher ex Baill., 1862
 Croton insularis var. genuinus, Müll.Arg., 1866
